--- a/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
+++ b/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC034\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F81FCAC-0B8B-492A-A877-DFCD54BE0CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72BA15-6DFC-4211-AE57-71A722680D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT PART INFO" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Regression_X" hidden="1">#REF!</definedName>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>Request To Parts Master</t>
   </si>
@@ -236,21 +237,6 @@
   <si>
     <t>LPA</t>
   </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>TB8scenario1320230614011</t>
-  </si>
-  <si>
-    <t>TB8scenario1320230614012</t>
-  </si>
 </sst>
 </file>
 
@@ -333,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +359,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,11 +542,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6363,6 +6355,7 @@
       <sheetName val="JOB一覧힍"/>
       <sheetName val="動力源"/>
       <sheetName val=": ណ"/>
+      <sheetName val="改訂ԯ"/>
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000_⽘_x0015__x0000__x0000_饦"/>
       <sheetName val="_x0000_:_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_"/>
       <sheetName val=":”_x0013__x0000_0é0°_x0000_ ReQ_x0005_"/>
@@ -6371,7 +6364,6 @@
       <sheetName val="加入者ｽﾃｰﾀ_x0002__x0000__x0000__x0000_+_x0000___x0015__x0000__x0000__"/>
       <sheetName val=":”_x0013__x0000_0_0°_x0000_ ReQ_x0005_\"/>
       <sheetName val="_x0000_:”_x0013__x0000_0é0°_x0000__x0000__x0000__x0000_ ReQ_x0005_€"/>
-      <sheetName val="改訂ԯ"/>
       <sheetName val="33519_x0001__x0000_.5.5)"/>
       <sheetName val="df砯¬_x0000__x0000_"/>
       <sheetName val="変更管理シ0_x0000_"/>
@@ -12294,14 +12286,14 @@
       <sheetData sheetId="5763" refreshError="1"/>
       <sheetData sheetId="5764" refreshError="1"/>
       <sheetData sheetId="5765"/>
-      <sheetData sheetId="5766" refreshError="1"/>
+      <sheetData sheetId="5766"/>
       <sheetData sheetId="5767" refreshError="1"/>
       <sheetData sheetId="5768" refreshError="1"/>
       <sheetData sheetId="5769" refreshError="1"/>
       <sheetData sheetId="5770" refreshError="1"/>
       <sheetData sheetId="5771" refreshError="1"/>
       <sheetData sheetId="5772" refreshError="1"/>
-      <sheetData sheetId="5773"/>
+      <sheetData sheetId="5773" refreshError="1"/>
       <sheetData sheetId="5774"/>
       <sheetData sheetId="5775" refreshError="1"/>
       <sheetData sheetId="5776" refreshError="1"/>
@@ -12457,6 +12449,146 @@
       <sheetData sheetId="5926" refreshError="1"/>
       <sheetData sheetId="5927" refreshError="1"/>
       <sheetData sheetId="5928" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Indicator"/>
+      <sheetName val="AutoIncrement"/>
+      <sheetName val="TC09-Create New User"/>
+      <sheetName val="TC14n15"/>
+      <sheetName val="TC019-Activate User"/>
+      <sheetName val="TC021-Forget Password"/>
+      <sheetName val="TC033"/>
+      <sheetName val="TC033_ETAnWeek"/>
+      <sheetName val="TC34"/>
+      <sheetName val="TC35-Contract Parts Info"/>
+      <sheetName val="TC35"/>
+      <sheetName val="TC038"/>
+      <sheetName val="TC039"/>
+      <sheetName val="S13_TC40"/>
+      <sheetName val="TC041 - Place Order (Regular)"/>
+      <sheetName val="TC041-Inbound Date"/>
+      <sheetName val="TC42"/>
+      <sheetName val="TC44"/>
+      <sheetName val="TC47-Change Order"/>
+      <sheetName val="TC47-Change Inbound Dates"/>
+      <sheetName val="TC48"/>
+      <sheetName val="TC049"/>
+      <sheetName val="TC050"/>
+      <sheetName val="TC52-Download Obound Form"/>
+      <sheetName val="TC52-Upload Obound Form"/>
+      <sheetName val="TC52-Upload Obound Setup"/>
+      <sheetName val="TC52-Autogen Outbound Data"/>
+      <sheetName val="TC053"/>
+      <sheetName val="TC054"/>
+      <sheetName val="TC55"/>
+      <sheetName val="TC56-Custom Invoice Exp"/>
+      <sheetName val="TC57-Custom Invoice Imp"/>
+      <sheetName val="TC58n59"/>
+      <sheetName val="TC62"/>
+      <sheetName val="TC62-Setup Data"/>
+      <sheetName val="TC063"/>
+      <sheetName val="TC64n65_ForecastContainer"/>
+      <sheetName val="TC64n65_ForecastContainer-Manua"/>
+      <sheetName val="TC64n65_NonFContainer"/>
+      <sheetName val="TC067"/>
+      <sheetName val="TC068"/>
+      <sheetName val="TC069"/>
+      <sheetName val="TC070"/>
+      <sheetName val="TC072"/>
+      <sheetName val="TC073n074_ForecastContainer"/>
+      <sheetName val="TC073n074_Forecast-Manual"/>
+      <sheetName val="TC073n074_NonFContainer"/>
+      <sheetName val="TC075"/>
+      <sheetName val="TC076n077_ForecastContainer"/>
+      <sheetName val="TC076n077_Forecast-Manaul"/>
+      <sheetName val="TC076n077_NonFContainer"/>
+      <sheetName val="TC078"/>
+      <sheetName val="TC079"/>
+      <sheetName val="TC080"/>
+      <sheetName val="TC82-New Buyer GR Invoice"/>
+      <sheetName val="TC83-Inbound Shipping Details"/>
+      <sheetName val="TC084n085_ForecastContainer"/>
+      <sheetName val="TC084n085_Forecast-Manual"/>
+      <sheetName val="TC084n085_NonFContainer"/>
+      <sheetName val="TC086"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>TBB</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12752,7 +12884,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -12998,19 +13130,21 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="39.6">
-      <c r="A8" s="20" t="s">
-        <v>62</v>
+      <c r="A8" s="33" t="str">
+        <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>65</v>
+      <c r="B8" s="34" t="str">
+        <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
+        <v>TBBscenario1320230614011</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>27</v>
@@ -13026,7 +13160,7 @@
       </c>
       <c r="I8" s="20" t="str">
         <f>$A9</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>30</v>
@@ -13049,19 +13183,21 @@
       <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:16" ht="39.6">
-      <c r="A9" s="20" t="s">
-        <v>63</v>
+      <c r="A9" s="33" t="str">
+        <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>66</v>
+      <c r="B9" s="34" t="str">
+        <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
+        <v>TBBscenario1320230614012</v>
       </c>
       <c r="C9" s="20" t="str">
         <f t="shared" ref="C9:D10" si="0">$A9</f>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TB8-scenario13-20230604-002</v>
+        <v>PK-CUS-TBB-scenario13-20230604-002</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>31</v>
@@ -13077,7 +13213,7 @@
       </c>
       <c r="I9" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TB8-scenario13-20230604-001</v>
+        <v>PK-CUS-TBB-scenario13-20230604-001</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>30</v>
@@ -13100,17 +13236,18 @@
       <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" ht="39.6">
-      <c r="A10" s="20" t="s">
-        <v>64</v>
+      <c r="A10" s="33" t="str">
+        <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
+        <v>PK-CUS-TBB-scenario13-20230604-003</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TBB-scenario13-20230604-003</v>
       </c>
       <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TB8-scenario13-20230604-003</v>
+        <v>PK-CUS-TBB-scenario13-20230604-003</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>32</v>
@@ -13372,6 +13509,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13509,16 +13655,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52B9E65-3B77-435B-ADDD-6D0449C9B919}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E6AF4B-5231-4341-AA62-368A22A55D18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13534,12 +13679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52B9E65-3B77-435B-ADDD-6D0449C9B919}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
+++ b/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA72BA15-6DFC-4211-AE57-71A722680D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD55C31-BCF3-4292-A5D6-153DC4949442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT PART INFO" sheetId="6" r:id="rId1"/>
@@ -561,8 +561,8 @@
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="常规 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="標準_OrionExcelDownloadForm" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿㼿 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
@@ -12462,7 +12462,13 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Indicator"/>
+      <sheetName val="AutoGen"/>
       <sheetName val="AutoIncrement"/>
+      <sheetName val="TC03-Company"/>
+      <sheetName val="TC04-Customer"/>
+      <sheetName val="TC05-BU"/>
+      <sheetName val="TC06-Supplier"/>
+      <sheetName val="TC07-DC"/>
       <sheetName val="TC09-Create New User"/>
       <sheetName val="TC14n15"/>
       <sheetName val="TC019-Activate User"/>
@@ -12477,13 +12483,16 @@
       <sheetName val="S13_TC40"/>
       <sheetName val="TC041 - Place Order (Regular)"/>
       <sheetName val="TC041-Inbound Date"/>
+      <sheetName val="TC041-Reference"/>
       <sheetName val="TC42"/>
       <sheetName val="TC44"/>
+      <sheetName val="TC46-Price"/>
       <sheetName val="TC47-Change Order"/>
       <sheetName val="TC47-Change Inbound Dates"/>
       <sheetName val="TC48"/>
       <sheetName val="TC049"/>
       <sheetName val="TC050"/>
+      <sheetName val="TC051"/>
       <sheetName val="TC52-Download Obound Form"/>
       <sheetName val="TC52-Upload Obound Form"/>
       <sheetName val="TC52-Upload Obound Setup"/>
@@ -12524,14 +12533,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="2">
           <cell r="C2" t="str">
-            <v>TBB</v>
+            <v>TS1</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
@@ -12589,6 +12598,15 @@
       <sheetData sheetId="57"/>
       <sheetData sheetId="58"/>
       <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12884,7 +12902,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15"/>
@@ -13132,19 +13150,19 @@
     <row r="8" spans="1:16" ht="39.6">
       <c r="A8" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="B8" s="34" t="str">
         <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TBBscenario1320230614011</v>
+        <v>TS1scenario1320230614011</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>27</v>
@@ -13160,7 +13178,7 @@
       </c>
       <c r="I8" s="20" t="str">
         <f>$A9</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>30</v>
@@ -13185,19 +13203,19 @@
     <row r="9" spans="1:16" ht="39.6">
       <c r="A9" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="B9" s="34" t="str">
         <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TBBscenario1320230614012</v>
+        <v>TS1scenario1320230614012</v>
       </c>
       <c r="C9" s="20" t="str">
         <f t="shared" ref="C9:D10" si="0">$A9</f>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TBB-scenario13-20230604-002</v>
+        <v>PK-CUS-TS1-scenario13-20230604-002</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>31</v>
@@ -13213,7 +13231,7 @@
       </c>
       <c r="I9" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TBB-scenario13-20230604-001</v>
+        <v>PK-CUS-TS1-scenario13-20230604-001</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>30</v>
@@ -13238,16 +13256,16 @@
     <row r="10" spans="1:16" ht="39.6">
       <c r="A10" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TBB-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TBB-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TBB-scenario13-20230604-003</v>
+        <v>PK-CUS-TS1-scenario13-20230604-003</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>32</v>
@@ -13509,15 +13527,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -13655,15 +13664,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52B9E65-3B77-435B-ADDD-6D0449C9B919}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9E6AF4B-5231-4341-AA62-368A22A55D18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13679,4 +13689,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E52B9E65-3B77-435B-ADDD-6D0449C9B919}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
+++ b/Excel Files/Scenario 13/TC034/13.0 - TC34 - Request Add New Part.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC034\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD55C31-BCF3-4292-A5D6-153DC4949442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85269519-A562-41FA-87EB-0409D69AFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22176" yWindow="1056" windowWidth="22140" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT PART INFO" sheetId="6" r:id="rId1"/>
@@ -12537,7 +12537,7 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2" t="str">
-            <v>TS1</v>
+            <v>TS2</v>
           </cell>
         </row>
       </sheetData>
@@ -13150,19 +13150,19 @@
     <row r="8" spans="1:16" ht="39.6">
       <c r="A8" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-001"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="B8" s="34" t="str">
         <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614011"</f>
-        <v>TS1scenario1320230614011</v>
+        <v>TS2scenario1320230614011</v>
       </c>
       <c r="C8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="D8" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>27</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="I8" s="20" t="str">
         <f>$A9</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>30</v>
@@ -13203,19 +13203,19 @@
     <row r="9" spans="1:16" ht="39.6">
       <c r="A9" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-002"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="B9" s="34" t="str">
         <f>[2]AutoIncrement!$C$2&amp;"scenario1320230614012"</f>
-        <v>TS1scenario1320230614012</v>
+        <v>TS2scenario1320230614012</v>
       </c>
       <c r="C9" s="20" t="str">
         <f t="shared" ref="C9:D10" si="0">$A9</f>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="D9" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TS1-scenario13-20230604-002</v>
+        <v>PK-CUS-TS2-scenario13-20230604-002</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>31</v>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="I9" s="20" t="str">
         <f>$A8</f>
-        <v>PK-CUS-TS1-scenario13-20230604-001</v>
+        <v>PK-CUS-TS2-scenario13-20230604-001</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>30</v>
@@ -13256,16 +13256,16 @@
     <row r="10" spans="1:16" ht="39.6">
       <c r="A10" s="33" t="str">
         <f>"PK-CUS-"&amp;[2]AutoIncrement!$C$2&amp;"-scenario13-20230604-003"</f>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="D10" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>PK-CUS-TS1-scenario13-20230604-003</v>
+        <v>PK-CUS-TS2-scenario13-20230604-003</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>32</v>
